--- a/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,84</t>
+          <t>8,54; 15,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 16,75</t>
+          <t>11,05; 16,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 15,18</t>
+          <t>10,55; 15,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,27</t>
+          <t>6,93; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,36</t>
+          <t>12,82; 18,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,1</t>
+          <t>10,52; 14,85</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,91</t>
+          <t>10,31; 17,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 26,58</t>
+          <t>19,09; 26,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,91</t>
+          <t>15,82; 20,89</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 22,16</t>
+          <t>12,18; 22,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 23,82</t>
+          <t>16,05; 23,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,79</t>
+          <t>15,36; 21,82</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,0</t>
+          <t>5,44; 11,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,38</t>
+          <t>8,76; 14,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,04</t>
+          <t>7,92; 12,09</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,91</t>
+          <t>12,14; 20,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,71; 32,38</t>
+          <t>23,4; 32,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 24,49</t>
+          <t>18,62; 24,37</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,34</t>
+          <t>10,5; 15,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 26,11</t>
+          <t>13,15; 26,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,5</t>
+          <t>13,17; 20,22</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,29</t>
+          <t>15,99; 22,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,34</t>
+          <t>27,16; 32,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,79; 26,94</t>
+          <t>21,89; 26,74</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,55</t>
+          <t>13,0; 15,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,09</t>
+          <t>19,44; 22,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,14</t>
+          <t>17,11; 19,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 15,95</t>
+          <t>8,45; 15,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,87</t>
+          <t>10,87; 16,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,27</t>
+          <t>10,6; 15,18</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,57</t>
+          <t>7,02; 13,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,11</t>
+          <t>12,88; 18,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 14,85</t>
+          <t>10,55; 15,1</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,15</t>
+          <t>10,21; 16,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,59</t>
+          <t>18,89; 26,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 20,89</t>
+          <t>15,68; 20,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 22,18</t>
+          <t>12,35; 22,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 23,91</t>
+          <t>15,72; 23,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 21,82</t>
+          <t>15,83; 21,79</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,53</t>
+          <t>5,37; 12,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 14,49</t>
+          <t>8,58; 14,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,09</t>
+          <t>7,68; 12,04</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,13</t>
+          <t>12,11; 19,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,4; 32,3</t>
+          <t>23,71; 32,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,37</t>
+          <t>18,84; 24,49</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,94</t>
+          <t>10,64; 16,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,15; 26,54</t>
+          <t>13,18; 26,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,17; 20,22</t>
+          <t>13,93; 20,5</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,63</t>
+          <t>14,98; 22,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,16; 32,68</t>
+          <t>27,02; 32,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,89; 26,74</t>
+          <t>21,79; 26,94</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,0; 15,58</t>
+          <t>13,08; 15,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,44; 22,99</t>
+          <t>19,43; 23,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,11; 19,23</t>
+          <t>17,16; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,16%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,84</t>
+          <t>7,81; 15,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 16,75</t>
+          <t>10,51; 16,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 15,18</t>
+          <t>10,02; 14,62</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,27</t>
+          <t>6,99; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,36</t>
+          <t>12,83; 18,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,1</t>
+          <t>10,38; 14,94</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,06%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,91</t>
+          <t>10,06; 16,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 26,58</t>
+          <t>18,8; 26,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,91</t>
+          <t>15,43; 20,66</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 22,16</t>
+          <t>12,21; 21,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 23,82</t>
+          <t>9,88; 21,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,79</t>
+          <t>12,29; 19,59</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,0</t>
+          <t>5,34; 11,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,38</t>
+          <t>8,7; 14,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,04</t>
+          <t>7,75; 12,12</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,36%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,91</t>
+          <t>11,89; 19,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,71; 32,38</t>
+          <t>23,62; 32,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 24,49</t>
+          <t>18,56; 24,16</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,34</t>
+          <t>10,23; 15,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 26,11</t>
+          <t>8,93; 26,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,5</t>
+          <t>10,03; 19,75</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,29</t>
+          <t>7,08; 21,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,34</t>
+          <t>27,68; 32,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,79; 26,94</t>
+          <t>13,79; 26,35</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,55</t>
+          <t>9,97; 14,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,09</t>
+          <t>16,67; 22,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,14</t>
+          <t>14,77; 18,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 15,21</t>
+          <t>7,76; 15,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 16,29</t>
+          <t>10,7; 16,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,62</t>
+          <t>10,01; 14,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,36</t>
+          <t>7,05; 13,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 18,22</t>
+          <t>12,6; 18,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,94</t>
+          <t>10,51; 14,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,64</t>
+          <t>9,77; 16,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 26,5</t>
+          <t>19,24; 26,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,66</t>
+          <t>15,59; 20,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 21,99</t>
+          <t>12,1; 22,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,11</t>
+          <t>10,0; 21,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 19,59</t>
+          <t>11,63; 20,01</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,89</t>
+          <t>5,41; 11,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 14,63</t>
+          <t>8,42; 14,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,12</t>
+          <t>7,87; 12,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 19,55</t>
+          <t>11,71; 19,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,62; 32,14</t>
+          <t>23,31; 32,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,16</t>
+          <t>18,94; 24,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,87</t>
+          <t>10,33; 15,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 26,01</t>
+          <t>10,01; 25,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,75</t>
+          <t>10,34; 19,78</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,08; 21,72</t>
+          <t>6,7; 21,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,68; 32,94</t>
+          <t>27,55; 33,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,79; 26,35</t>
+          <t>13,34; 26,36</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,64</t>
+          <t>10,15; 14,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,36</t>
+          <t>16,05; 22,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,2</t>
+          <t>14,69; 18,16</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34544</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38565</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73109</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24175; 48816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31003; 47460</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60152; 88453</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50040</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78334</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>128373</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36559; 69626</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>64903; 93931</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108608; 152013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41141</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>78902</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120043</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30892; 53091</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67071; 92022</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103639; 139143</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51477</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>77470</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>128947</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37816; 70111</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47559; 101325</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>91662; 157766</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14324</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23559</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>37883</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9673; 20969</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17545; 29620</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30441; 46586</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41124</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>71381</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>112505</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31587; 52190</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>59932; 82625</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>99734; 129457</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>78606</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>162217</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>240822</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>64379; 97484</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>85012; 220151</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>152187; 291276</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>142540</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>217498</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>360038</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>62205; 201117</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>197074; 237542</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>219269; 433464</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>453796</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>747925</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1201720</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>351069; 505106</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>587398; 813489</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1045481; 1292841</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>